--- a/data/pca/factorExposure/factorExposure_2017-05-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02267010342450906</v>
+        <v>-0.01028814568244089</v>
       </c>
       <c r="C2">
-        <v>-0.009073317420190222</v>
+        <v>0.04478721776161532</v>
       </c>
       <c r="D2">
-        <v>0.03811647678551221</v>
+        <v>0.02985917953240403</v>
       </c>
       <c r="E2">
-        <v>-0.01016365600172497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03351673803536539</v>
+      </c>
+      <c r="F2">
+        <v>-0.009070668625103841</v>
+      </c>
+      <c r="G2">
+        <v>0.0966165803421305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01846653314700316</v>
+        <v>-0.04378971654245923</v>
       </c>
       <c r="C3">
-        <v>0.02752840214895348</v>
+        <v>0.103150794617985</v>
       </c>
       <c r="D3">
-        <v>0.1094149216952823</v>
+        <v>0.01813402471529273</v>
       </c>
       <c r="E3">
-        <v>-0.05499425565022378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1005926712960557</v>
+      </c>
+      <c r="F3">
+        <v>-0.006687204948208929</v>
+      </c>
+      <c r="G3">
+        <v>0.19388488737284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02518892831429221</v>
+        <v>-0.05556695619909904</v>
       </c>
       <c r="C4">
-        <v>0.005260925172361278</v>
+        <v>0.06816460970264182</v>
       </c>
       <c r="D4">
-        <v>0.08911503856277876</v>
+        <v>0.0245079879900909</v>
       </c>
       <c r="E4">
-        <v>0.007598702231790207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02776442253935322</v>
+      </c>
+      <c r="F4">
+        <v>-0.0100382754877048</v>
+      </c>
+      <c r="G4">
+        <v>0.09774228777094783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01313116741131135</v>
+        <v>-0.03655673344849122</v>
       </c>
       <c r="C6">
-        <v>-0.01108726928203924</v>
+        <v>0.05267748208134156</v>
       </c>
       <c r="D6">
-        <v>0.08042050515512982</v>
+        <v>0.01690112476187667</v>
       </c>
       <c r="E6">
-        <v>0.007598186108846183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03186162044764446</v>
+      </c>
+      <c r="F6">
+        <v>-0.0106016478865639</v>
+      </c>
+      <c r="G6">
+        <v>0.07903807764990199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01199425832643301</v>
+        <v>-0.02093298630519523</v>
       </c>
       <c r="C7">
-        <v>0.003104227744392969</v>
+        <v>0.04187826530347547</v>
       </c>
       <c r="D7">
-        <v>0.04589244573319236</v>
+        <v>0.01346726407327222</v>
       </c>
       <c r="E7">
-        <v>0.04264292856630189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004012108081245993</v>
+      </c>
+      <c r="F7">
+        <v>0.005409511069798294</v>
+      </c>
+      <c r="G7">
+        <v>0.1268452119994224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001524401171894831</v>
+        <v>-0.003536127734271319</v>
       </c>
       <c r="C8">
-        <v>-0.002551156334508041</v>
+        <v>0.02533309757676845</v>
       </c>
       <c r="D8">
-        <v>0.006712499358158957</v>
+        <v>0.004011565762528959</v>
       </c>
       <c r="E8">
-        <v>0.001002491083787661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02435329034531198</v>
+      </c>
+      <c r="F8">
+        <v>-0.006309061335354952</v>
+      </c>
+      <c r="G8">
+        <v>0.06925518877293474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01740132419002537</v>
+        <v>-0.03344600190165053</v>
       </c>
       <c r="C9">
-        <v>0.00867039289810124</v>
+        <v>0.0496649802019234</v>
       </c>
       <c r="D9">
-        <v>0.06421943638346743</v>
+        <v>0.01658182450731713</v>
       </c>
       <c r="E9">
-        <v>-0.0007467351451717842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01734940383876161</v>
+      </c>
+      <c r="F9">
+        <v>-0.00724539914111418</v>
+      </c>
+      <c r="G9">
+        <v>0.09682265643793676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03955019527667051</v>
+        <v>-0.0987180711314915</v>
       </c>
       <c r="C10">
-        <v>0.1778219792011664</v>
+        <v>-0.1809334547184804</v>
       </c>
       <c r="D10">
-        <v>-0.0918819030040897</v>
+        <v>-0.01491240413952945</v>
       </c>
       <c r="E10">
-        <v>-0.03239098700754342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02099739380426733</v>
+      </c>
+      <c r="F10">
+        <v>0.02370835273005468</v>
+      </c>
+      <c r="G10">
+        <v>0.06152697589493008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0005992423075069571</v>
+        <v>-0.0349894154314073</v>
       </c>
       <c r="C11">
-        <v>-0.001636330083236402</v>
+        <v>0.05483904527955009</v>
       </c>
       <c r="D11">
-        <v>0.05796623078090542</v>
+        <v>0.002253096595181219</v>
       </c>
       <c r="E11">
-        <v>-0.003594105190946083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01018850699328978</v>
+      </c>
+      <c r="F11">
+        <v>-0.02075603997284506</v>
+      </c>
+      <c r="G11">
+        <v>0.08643580189517369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005772482110878363</v>
+        <v>-0.03665695395706842</v>
       </c>
       <c r="C12">
-        <v>0.0005918607535287244</v>
+        <v>0.04943710137480883</v>
       </c>
       <c r="D12">
-        <v>0.05169943237621597</v>
+        <v>0.006218215178651779</v>
       </c>
       <c r="E12">
-        <v>0.01218738907837341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002807188612720138</v>
+      </c>
+      <c r="F12">
+        <v>-0.001539179997534579</v>
+      </c>
+      <c r="G12">
+        <v>0.08140636289558909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02489237764797542</v>
+        <v>-0.01654555487928554</v>
       </c>
       <c r="C13">
-        <v>0.01095346932682702</v>
+        <v>0.04177620366579123</v>
       </c>
       <c r="D13">
-        <v>0.03793492000136887</v>
+        <v>0.02630081194959313</v>
       </c>
       <c r="E13">
-        <v>-0.02230033964069915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03073590485998202</v>
+      </c>
+      <c r="F13">
+        <v>-0.006046638894792225</v>
+      </c>
+      <c r="G13">
+        <v>0.1246344492296303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009715734215533667</v>
+        <v>-0.008924416648737877</v>
       </c>
       <c r="C14">
-        <v>0.01056320642718856</v>
+        <v>0.02973104786090194</v>
       </c>
       <c r="D14">
-        <v>0.02053311954243748</v>
+        <v>0.009917889029003334</v>
       </c>
       <c r="E14">
-        <v>-0.00243625765953088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002953987285140689</v>
+      </c>
+      <c r="F14">
+        <v>0.009427063200744422</v>
+      </c>
+      <c r="G14">
+        <v>0.1006968115666995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002142716641619513</v>
+        <v>-0.03349624017832118</v>
       </c>
       <c r="C16">
-        <v>0.006010415910702018</v>
+        <v>0.04800905442606859</v>
       </c>
       <c r="D16">
-        <v>0.04864137132433299</v>
+        <v>0.001822943246027666</v>
       </c>
       <c r="E16">
-        <v>0.007866164798050572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.009392576049676972</v>
+      </c>
+      <c r="F16">
+        <v>-0.002723525380859862</v>
+      </c>
+      <c r="G16">
+        <v>0.08957639849194908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01466016976425129</v>
+        <v>-0.02174888336885659</v>
       </c>
       <c r="C19">
-        <v>0.006118887712160886</v>
+        <v>0.0549781050814993</v>
       </c>
       <c r="D19">
-        <v>0.04931630379907843</v>
+        <v>0.01897059491012429</v>
       </c>
       <c r="E19">
-        <v>-0.003064652937738028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06942020745776117</v>
+      </c>
+      <c r="F19">
+        <v>-0.02007839560698847</v>
+      </c>
+      <c r="G19">
+        <v>0.1343300285389427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01109027494856716</v>
+        <v>-0.01549388808460851</v>
       </c>
       <c r="C20">
-        <v>0.0008161274462851774</v>
+        <v>0.04072644063475345</v>
       </c>
       <c r="D20">
-        <v>0.03765280590470411</v>
+        <v>0.0140893358823311</v>
       </c>
       <c r="E20">
-        <v>-0.02717349151803407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02971462890554575</v>
+      </c>
+      <c r="F20">
+        <v>0.01373690076052997</v>
+      </c>
+      <c r="G20">
+        <v>0.1073802459528742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01567225316838456</v>
+        <v>-0.01300863366610408</v>
       </c>
       <c r="C21">
-        <v>0.009284946232078839</v>
+        <v>0.04105636902228135</v>
       </c>
       <c r="D21">
-        <v>0.03959684370168096</v>
+        <v>0.0188281368354054</v>
       </c>
       <c r="E21">
-        <v>-0.009285687539290226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0423779842376928</v>
+      </c>
+      <c r="F21">
+        <v>-0.002468750196243112</v>
+      </c>
+      <c r="G21">
+        <v>0.1326037717445456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0009214831194968837</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001663132285388296</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0003739352389199404</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001367091369859667</v>
+      </c>
+      <c r="F22">
+        <v>-0.0007270944524280369</v>
+      </c>
+      <c r="G22">
+        <v>0.003190610470599699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0009258305618495658</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001659533998347337</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0003740676040273326</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001372820438794775</v>
+      </c>
+      <c r="F23">
+        <v>-0.0007255904759036604</v>
+      </c>
+      <c r="G23">
+        <v>0.003203043637369013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.003631161701055638</v>
+        <v>-0.0290178907432711</v>
       </c>
       <c r="C24">
-        <v>-0.007132456760833779</v>
+        <v>0.05209250301568288</v>
       </c>
       <c r="D24">
-        <v>0.05183201729943036</v>
+        <v>0.006999664976772233</v>
       </c>
       <c r="E24">
-        <v>0.006344745126488509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005623975690300642</v>
+      </c>
+      <c r="F24">
+        <v>-0.01183650667702095</v>
+      </c>
+      <c r="G24">
+        <v>0.0866487409626412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01313772117433055</v>
+        <v>-0.04352154219390163</v>
       </c>
       <c r="C25">
-        <v>0.008753612623570352</v>
+        <v>0.0595072313622744</v>
       </c>
       <c r="D25">
-        <v>0.06169639885790743</v>
+        <v>0.01106384877959285</v>
       </c>
       <c r="E25">
-        <v>0.00902372803936571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001149988194910314</v>
+      </c>
+      <c r="F25">
+        <v>-0.006179806655808981</v>
+      </c>
+      <c r="G25">
+        <v>0.09851946216186262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02331320819413013</v>
+        <v>-0.01423863433364946</v>
       </c>
       <c r="C26">
-        <v>0.002648524990410767</v>
+        <v>0.01195387675955004</v>
       </c>
       <c r="D26">
-        <v>0.004328172500434472</v>
+        <v>0.02404149001474356</v>
       </c>
       <c r="E26">
-        <v>0.00307604328777093</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007469304759814094</v>
+      </c>
+      <c r="F26">
+        <v>0.00891516209828936</v>
+      </c>
+      <c r="G26">
+        <v>0.08059678918789974</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.06823089397264273</v>
+        <v>-0.1251615615576872</v>
       </c>
       <c r="C28">
-        <v>0.2427371855925004</v>
+        <v>-0.2373104465595691</v>
       </c>
       <c r="D28">
-        <v>-0.1164680838899507</v>
+        <v>-0.005823570728345775</v>
       </c>
       <c r="E28">
-        <v>-0.004366038770823995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.006230106459982329</v>
+      </c>
+      <c r="F28">
+        <v>0.016522955970863</v>
+      </c>
+      <c r="G28">
+        <v>0.05576762609741759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01074691029733003</v>
+        <v>-0.009743291753839287</v>
       </c>
       <c r="C29">
-        <v>0.01578176299655665</v>
+        <v>0.02338930717268345</v>
       </c>
       <c r="D29">
-        <v>0.02126682711512346</v>
+        <v>0.008977406604282104</v>
       </c>
       <c r="E29">
-        <v>-0.004803404983149388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001472812473722489</v>
+      </c>
+      <c r="F29">
+        <v>0.01790262759304586</v>
+      </c>
+      <c r="G29">
+        <v>0.09400035448358669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02271119431679976</v>
+        <v>-0.04157400165289439</v>
       </c>
       <c r="C30">
-        <v>-0.01316113887794795</v>
+        <v>0.06972093398872276</v>
       </c>
       <c r="D30">
-        <v>0.09949511099418451</v>
+        <v>0.02883742905253308</v>
       </c>
       <c r="E30">
-        <v>-0.03613960430088695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05333598407380871</v>
+      </c>
+      <c r="F30">
+        <v>-0.04568446491163796</v>
+      </c>
+      <c r="G30">
+        <v>0.1112311960972564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01203849148820978</v>
+        <v>-0.05361627985575997</v>
       </c>
       <c r="C31">
-        <v>0.02820669337346366</v>
+        <v>0.03815916333761455</v>
       </c>
       <c r="D31">
-        <v>0.04036535738851508</v>
+        <v>0.003628517089388251</v>
       </c>
       <c r="E31">
-        <v>0.0002844822615151014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001902385456513586</v>
+      </c>
+      <c r="F31">
+        <v>0.04231717335521693</v>
+      </c>
+      <c r="G31">
+        <v>0.09476081228410624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004264990001541756</v>
+        <v>-0.002057884330313846</v>
       </c>
       <c r="C32">
-        <v>0.01653688810076714</v>
+        <v>0.02563913171253047</v>
       </c>
       <c r="D32">
-        <v>0.01209651603601462</v>
+        <v>-0.003511260622939312</v>
       </c>
       <c r="E32">
-        <v>0.03889926737417221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01935230051689902</v>
+      </c>
+      <c r="F32">
+        <v>-0.03743794835748329</v>
+      </c>
+      <c r="G32">
+        <v>0.09087976897111456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01430247234293434</v>
+        <v>-0.02840632166707883</v>
       </c>
       <c r="C33">
-        <v>0.01126344565052447</v>
+        <v>0.05074557770877999</v>
       </c>
       <c r="D33">
-        <v>0.04304570881833249</v>
+        <v>0.01564447169930819</v>
       </c>
       <c r="E33">
-        <v>-0.02514175646646592</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03631443954527422</v>
+      </c>
+      <c r="F33">
+        <v>-0.01622387977696371</v>
+      </c>
+      <c r="G33">
+        <v>0.1501839678565316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001913062658427633</v>
+        <v>-0.04097488368720802</v>
       </c>
       <c r="C34">
-        <v>0.01540562955618555</v>
+        <v>0.06165201505618416</v>
       </c>
       <c r="D34">
-        <v>0.06048311637536154</v>
+        <v>-0.004850798190163318</v>
       </c>
       <c r="E34">
-        <v>0.01890538960510193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-1.91036456867311e-05</v>
+      </c>
+      <c r="F34">
+        <v>-0.01959189470711052</v>
+      </c>
+      <c r="G34">
+        <v>0.09414881841189694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01418749086894325</v>
+        <v>-0.01647349333008738</v>
       </c>
       <c r="C36">
-        <v>0.013808359780926</v>
+        <v>0.009937931598759676</v>
       </c>
       <c r="D36">
-        <v>0.007538880769158744</v>
+        <v>0.01229685214354616</v>
       </c>
       <c r="E36">
-        <v>0.001794332963371149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004504521720413517</v>
+      </c>
+      <c r="F36">
+        <v>0.007487491308517628</v>
+      </c>
+      <c r="G36">
+        <v>0.08776869206215883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0004022611506728472</v>
+        <v>-0.03214632657322507</v>
       </c>
       <c r="C38">
-        <v>0.02715514351098017</v>
+        <v>0.03164426180110073</v>
       </c>
       <c r="D38">
-        <v>0.05164745483433562</v>
+        <v>-0.007558075709306711</v>
       </c>
       <c r="E38">
-        <v>0.007100576167755306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003109658367227178</v>
+      </c>
+      <c r="F38">
+        <v>0.0203009162491952</v>
+      </c>
+      <c r="G38">
+        <v>0.08323533307397306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.001835407389491987</v>
+        <v>-0.03677166025876663</v>
       </c>
       <c r="C39">
-        <v>-0.02989604903344831</v>
+        <v>0.08202679015579913</v>
       </c>
       <c r="D39">
-        <v>0.1026321342222106</v>
+        <v>0.01152525335164962</v>
       </c>
       <c r="E39">
-        <v>-0.01289488982889954</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02140555846973313</v>
+      </c>
+      <c r="F39">
+        <v>-0.02387824668280542</v>
+      </c>
+      <c r="G39">
+        <v>0.08577530477889413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0129459033332293</v>
+        <v>-0.01492895784169012</v>
       </c>
       <c r="C40">
-        <v>0.007816961625337288</v>
+        <v>0.04304148149227152</v>
       </c>
       <c r="D40">
-        <v>0.0438050302522626</v>
+        <v>0.01478635853248625</v>
       </c>
       <c r="E40">
-        <v>0.01113993269437866</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02031783029914855</v>
+      </c>
+      <c r="F40">
+        <v>0.0166052191166199</v>
+      </c>
+      <c r="G40">
+        <v>0.1231509530319641</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.008489027540695786</v>
+        <v>-0.02088223806710742</v>
       </c>
       <c r="C41">
-        <v>0.02149437240446577</v>
+        <v>0.002674610198407508</v>
       </c>
       <c r="D41">
-        <v>-0.009988143931637253</v>
+        <v>0.004186471494037127</v>
       </c>
       <c r="E41">
-        <v>0.007247657519979502</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003102382992395615</v>
+      </c>
+      <c r="F41">
+        <v>0.01609285028532812</v>
+      </c>
+      <c r="G41">
+        <v>0.07674686780151523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08734408414329081</v>
+        <v>-0.009356286243801339</v>
       </c>
       <c r="C42">
-        <v>-0.04266354074518672</v>
+        <v>0.03070962136222099</v>
       </c>
       <c r="D42">
-        <v>0.1438370571137605</v>
+        <v>0.09040629786533665</v>
       </c>
       <c r="E42">
-        <v>-0.3009764127739115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01811802021914558</v>
+      </c>
+      <c r="F42">
+        <v>0.03659970184301059</v>
+      </c>
+      <c r="G42">
+        <v>-0.09987817164338557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.009869174829714254</v>
+        <v>-0.03481871862522853</v>
       </c>
       <c r="C43">
-        <v>0.02414132742021528</v>
+        <v>0.01882934834170013</v>
       </c>
       <c r="D43">
-        <v>-0.004017953214552293</v>
+        <v>0.005948435329331193</v>
       </c>
       <c r="E43">
-        <v>0.01030438989015724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01718735535378991</v>
+      </c>
+      <c r="F43">
+        <v>0.005571069286955731</v>
+      </c>
+      <c r="G43">
+        <v>0.1133448856979695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002831255028906657</v>
+        <v>-0.01316755001395209</v>
       </c>
       <c r="C44">
-        <v>-0.001576222166039932</v>
+        <v>0.06018375190407874</v>
       </c>
       <c r="D44">
-        <v>0.0573216530664352</v>
+        <v>0.006757123783266496</v>
       </c>
       <c r="E44">
-        <v>0.007640637961871299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01859078708339919</v>
+      </c>
+      <c r="F44">
+        <v>0.009018343281099933</v>
+      </c>
+      <c r="G44">
+        <v>0.1025726593342766</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01206063837066843</v>
+        <v>-0.007864484967883719</v>
       </c>
       <c r="C46">
-        <v>0.008843367177599933</v>
+        <v>0.01800543801261779</v>
       </c>
       <c r="D46">
-        <v>0.007098663793623453</v>
+        <v>0.01265276429025638</v>
       </c>
       <c r="E46">
-        <v>-0.01101158683700854</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001437025066360668</v>
+      </c>
+      <c r="F46">
+        <v>0.01718832459565301</v>
+      </c>
+      <c r="G46">
+        <v>0.09747927239540695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.007455411865099758</v>
+        <v>-0.07775049409018082</v>
       </c>
       <c r="C47">
-        <v>0.03654728383055542</v>
+        <v>0.06736216599694199</v>
       </c>
       <c r="D47">
-        <v>0.07729440725527141</v>
+        <v>-0.00512161344888461</v>
       </c>
       <c r="E47">
-        <v>0.01222670048275929</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.006831084991565112</v>
+      </c>
+      <c r="F47">
+        <v>0.05622037877649962</v>
+      </c>
+      <c r="G47">
+        <v>0.08225370633087009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005502795746202437</v>
+        <v>-0.01970056465568657</v>
       </c>
       <c r="C48">
-        <v>0.01741936402322055</v>
+        <v>0.01312602008357395</v>
       </c>
       <c r="D48">
-        <v>0.02050131568431144</v>
+        <v>0.00192880375932455</v>
       </c>
       <c r="E48">
-        <v>-0.003723356601833741</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002546157881059004</v>
+      </c>
+      <c r="F48">
+        <v>0.02065911827644567</v>
+      </c>
+      <c r="G48">
+        <v>0.09069553339550755</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.009852498393101115</v>
+        <v>-0.0754321432526228</v>
       </c>
       <c r="C50">
-        <v>0.03919483476256919</v>
+        <v>0.0725525591279971</v>
       </c>
       <c r="D50">
-        <v>0.07444614616022595</v>
+        <v>-0.002431524573963524</v>
       </c>
       <c r="E50">
-        <v>0.02752551131474579</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.00632304246647441</v>
+      </c>
+      <c r="F50">
+        <v>0.0568433367555022</v>
+      </c>
+      <c r="G50">
+        <v>0.09535787662217728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008155924613470568</v>
+        <v>-0.01484404172147257</v>
       </c>
       <c r="C51">
-        <v>0.008599683283043865</v>
+        <v>0.03728212064184624</v>
       </c>
       <c r="D51">
-        <v>0.02423384222597795</v>
+        <v>0.01048083987586158</v>
       </c>
       <c r="E51">
-        <v>0.004985815077499527</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01920804529078131</v>
+      </c>
+      <c r="F51">
+        <v>-0.02192720221566514</v>
+      </c>
+      <c r="G51">
+        <v>0.1221374940726933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01045267709697705</v>
+        <v>-0.08197617858549523</v>
       </c>
       <c r="C53">
-        <v>0.03666198597086021</v>
+        <v>0.0857994211824358</v>
       </c>
       <c r="D53">
-        <v>0.1314855939611353</v>
+        <v>-0.00353969805934661</v>
       </c>
       <c r="E53">
-        <v>0.02150791538575352</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02449315697487115</v>
+      </c>
+      <c r="F53">
+        <v>0.06689867086696297</v>
+      </c>
+      <c r="G53">
+        <v>0.08448646663478299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.00645056114982429</v>
+        <v>-0.0324667450514369</v>
       </c>
       <c r="C54">
-        <v>0.0395740995726538</v>
+        <v>0.01840114696819666</v>
       </c>
       <c r="D54">
-        <v>0.003199365871474252</v>
+        <v>-0.001595717071389698</v>
       </c>
       <c r="E54">
-        <v>-0.01572141428469205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01360983863560815</v>
+      </c>
+      <c r="F54">
+        <v>0.006084975760274858</v>
+      </c>
+      <c r="G54">
+        <v>0.1017660002711194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.005696212005684028</v>
+        <v>-0.07203987937288459</v>
       </c>
       <c r="C55">
-        <v>0.02429453507812748</v>
+        <v>0.0690110340061881</v>
       </c>
       <c r="D55">
-        <v>0.1070918332946302</v>
+        <v>-0.005069411855914865</v>
       </c>
       <c r="E55">
-        <v>0.007509482957516316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02157449151416592</v>
+      </c>
+      <c r="F55">
+        <v>0.06378881026201692</v>
+      </c>
+      <c r="G55">
+        <v>0.06077614121910421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01105961349431774</v>
+        <v>-0.1377420337167815</v>
       </c>
       <c r="C56">
-        <v>0.05644613017008315</v>
+        <v>0.1084248130882094</v>
       </c>
       <c r="D56">
-        <v>0.1637335530053895</v>
+        <v>-0.01270695839877677</v>
       </c>
       <c r="E56">
-        <v>0.02829485819807628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03082176275103606</v>
+      </c>
+      <c r="F56">
+        <v>0.08172165311307855</v>
+      </c>
+      <c r="G56">
+        <v>0.03331630580118948</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02460065458473481</v>
+        <v>-0.006058529707482962</v>
       </c>
       <c r="C57">
-        <v>0.002452482322230183</v>
+        <v>0.008072047382110122</v>
       </c>
       <c r="D57">
-        <v>0.0404923976162393</v>
+        <v>0.0234796523371042</v>
       </c>
       <c r="E57">
-        <v>-0.03745967986846754</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02555676984203755</v>
+      </c>
+      <c r="F57">
+        <v>-0.01106866945370729</v>
+      </c>
+      <c r="G57">
+        <v>0.03017770785598795</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01280760203874678</v>
+        <v>-0.05314863920237867</v>
       </c>
       <c r="C58">
-        <v>0.03010514650188177</v>
+        <v>0.05264529069349506</v>
       </c>
       <c r="D58">
-        <v>0.1486389112787746</v>
+        <v>0.02456274661415168</v>
       </c>
       <c r="E58">
-        <v>-0.8151400753701283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.935679833800051</v>
+      </c>
+      <c r="F58">
+        <v>0.2205286705438472</v>
+      </c>
+      <c r="G58">
+        <v>-0.1667019076225782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.06992102009939198</v>
+        <v>-0.1601816196953899</v>
       </c>
       <c r="C59">
-        <v>0.2674215512340608</v>
+        <v>-0.2032190714722309</v>
       </c>
       <c r="D59">
-        <v>-0.09951657659071868</v>
+        <v>-0.01120586340696425</v>
       </c>
       <c r="E59">
-        <v>0.01205645210553264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01866009807118457</v>
+      </c>
+      <c r="F59">
+        <v>0.0002649418757766461</v>
+      </c>
+      <c r="G59">
+        <v>0.0450006462088797</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.06202437953569118</v>
+        <v>-0.2879413178585197</v>
       </c>
       <c r="C60">
-        <v>0.1597670702559734</v>
+        <v>0.1058437475880554</v>
       </c>
       <c r="D60">
-        <v>0.1408622210437628</v>
+        <v>0.01138764346873677</v>
       </c>
       <c r="E60">
-        <v>0.05969601806457069</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01086043676952739</v>
+      </c>
+      <c r="F60">
+        <v>-0.3433638865841279</v>
+      </c>
+      <c r="G60">
+        <v>-0.1485934379398277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002900326926114888</v>
+        <v>-0.03839512933326771</v>
       </c>
       <c r="C61">
-        <v>-0.003082280676198151</v>
+        <v>0.06741828216480615</v>
       </c>
       <c r="D61">
-        <v>0.07665285299434099</v>
+        <v>0.005264273708907063</v>
       </c>
       <c r="E61">
-        <v>0.005711694523552682</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01382328762893733</v>
+      </c>
+      <c r="F61">
+        <v>-0.01527268079617744</v>
+      </c>
+      <c r="G61">
+        <v>0.09085573432222296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008608283468533312</v>
+        <v>-0.01551905648871801</v>
       </c>
       <c r="C63">
-        <v>0.003449683561786368</v>
+        <v>0.03087708415626978</v>
       </c>
       <c r="D63">
-        <v>0.02907137336578739</v>
+        <v>0.008493146940060708</v>
       </c>
       <c r="E63">
-        <v>0.0119366418136117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001608184739941712</v>
+      </c>
+      <c r="F63">
+        <v>0.01843091793377613</v>
+      </c>
+      <c r="G63">
+        <v>0.09319806748311822</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01096146951602643</v>
+        <v>-0.04797815894557777</v>
       </c>
       <c r="C64">
-        <v>0.02088056352605919</v>
+        <v>0.04758337739639897</v>
       </c>
       <c r="D64">
-        <v>0.0630435616482654</v>
+        <v>0.006088644233927827</v>
       </c>
       <c r="E64">
-        <v>0.005076843966945859</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-2.687637942139711e-05</v>
+      </c>
+      <c r="F64">
+        <v>-0.005964387104448971</v>
+      </c>
+      <c r="G64">
+        <v>0.08758263383779442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0175165767513918</v>
+        <v>-0.07453199062669527</v>
       </c>
       <c r="C65">
-        <v>-0.004254674811848721</v>
+        <v>0.05944725895019174</v>
       </c>
       <c r="D65">
-        <v>0.1075822248498131</v>
+        <v>0.0163850061389881</v>
       </c>
       <c r="E65">
-        <v>0.02567506302874147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03266267461256227</v>
+      </c>
+      <c r="F65">
+        <v>-0.03097496218780481</v>
+      </c>
+      <c r="G65">
+        <v>0.03348135631521022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.002181086172430016</v>
+        <v>-0.05170598733446081</v>
       </c>
       <c r="C66">
-        <v>-0.02801709790316454</v>
+        <v>0.1098240934861874</v>
       </c>
       <c r="D66">
-        <v>0.1360187188982858</v>
+        <v>0.01153954298013424</v>
       </c>
       <c r="E66">
-        <v>-0.006590242871568766</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03071737521353541</v>
+      </c>
+      <c r="F66">
+        <v>-0.03574960357147162</v>
+      </c>
+      <c r="G66">
+        <v>0.1026272330256568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.008237543809752555</v>
+        <v>-0.05521756809534689</v>
       </c>
       <c r="C67">
-        <v>0.04637443422765898</v>
+        <v>0.03512532198577838</v>
       </c>
       <c r="D67">
-        <v>0.06917997115229726</v>
+        <v>-0.005972629938393841</v>
       </c>
       <c r="E67">
-        <v>0.009786121941544179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003761558319120336</v>
+      </c>
+      <c r="F67">
+        <v>0.01904253645925865</v>
+      </c>
+      <c r="G67">
+        <v>0.07436040409025203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.08418823264308412</v>
+        <v>-0.1538173834135601</v>
       </c>
       <c r="C68">
-        <v>0.2488743090129653</v>
+        <v>-0.2693340790482011</v>
       </c>
       <c r="D68">
-        <v>-0.1493129691406174</v>
+        <v>0.006361487624999044</v>
       </c>
       <c r="E68">
-        <v>-0.02749999707074618</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.013395108116574</v>
+      </c>
+      <c r="F68">
+        <v>0.03276540006563745</v>
+      </c>
+      <c r="G68">
+        <v>0.03465954645438244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00323225022669372</v>
+        <v>-0.08241267820382218</v>
       </c>
       <c r="C69">
-        <v>0.03336953425952191</v>
+        <v>0.07089685308406925</v>
       </c>
       <c r="D69">
-        <v>0.08117265366215917</v>
+        <v>-0.009091655871412261</v>
       </c>
       <c r="E69">
-        <v>0.02457146546001249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02306672857805041</v>
+      </c>
+      <c r="F69">
+        <v>0.03817922222523141</v>
+      </c>
+      <c r="G69">
+        <v>0.09390684676882739</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.06464691622957908</v>
+        <v>-0.1400501345312859</v>
       </c>
       <c r="C71">
-        <v>0.2118196518516828</v>
+        <v>-0.2276555060696906</v>
       </c>
       <c r="D71">
-        <v>-0.09579919221136604</v>
+        <v>-0.002312238138129676</v>
       </c>
       <c r="E71">
-        <v>-0.02874282031187021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03384099327069571</v>
+      </c>
+      <c r="F71">
+        <v>0.01932660048933577</v>
+      </c>
+      <c r="G71">
+        <v>0.07059272858951943</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0006040892697775665</v>
+        <v>-0.08486508987603875</v>
       </c>
       <c r="C72">
-        <v>0.02413101906765179</v>
+        <v>0.0721805275344219</v>
       </c>
       <c r="D72">
-        <v>0.1067082854131191</v>
+        <v>-0.00836696685840862</v>
       </c>
       <c r="E72">
-        <v>0.03458671876865835</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.00527883643599499</v>
+      </c>
+      <c r="F72">
+        <v>-0.03895038480293148</v>
+      </c>
+      <c r="G72">
+        <v>0.08320936288924487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.07563766799699036</v>
+        <v>-0.3767413788122338</v>
       </c>
       <c r="C73">
-        <v>0.1696634632308541</v>
+        <v>0.1161296989364956</v>
       </c>
       <c r="D73">
-        <v>0.2594425945593308</v>
+        <v>0.02023399184762856</v>
       </c>
       <c r="E73">
-        <v>0.03002881044591824</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05992255679784476</v>
+      </c>
+      <c r="F73">
+        <v>-0.5809564543608049</v>
+      </c>
+      <c r="G73">
+        <v>-0.2612230323691094</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.009195679716596517</v>
+        <v>-0.1051112547752278</v>
       </c>
       <c r="C74">
-        <v>0.05103905055100351</v>
+        <v>0.1090168193380258</v>
       </c>
       <c r="D74">
-        <v>0.1742439186439191</v>
+        <v>-0.009462773600525082</v>
       </c>
       <c r="E74">
-        <v>0.01780860940139605</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.006636509962073763</v>
+      </c>
+      <c r="F74">
+        <v>0.06988756800440783</v>
+      </c>
+      <c r="G74">
+        <v>0.0759426059796872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.02516593617695924</v>
+        <v>-0.2488053812618497</v>
       </c>
       <c r="C75">
-        <v>0.1302201445615138</v>
+        <v>0.1505873739712288</v>
       </c>
       <c r="D75">
-        <v>0.302566595378562</v>
+        <v>-0.03098360154627571</v>
       </c>
       <c r="E75">
-        <v>0.03738489720690325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05523538351991553</v>
+      </c>
+      <c r="F75">
+        <v>0.1776890792405622</v>
+      </c>
+      <c r="G75">
+        <v>-0.03475855449216213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.00720245043304774</v>
+        <v>-0.1198603832138947</v>
       </c>
       <c r="C76">
-        <v>0.06988515110768684</v>
+        <v>0.1097298288615082</v>
       </c>
       <c r="D76">
-        <v>0.2217136733710956</v>
+        <v>-0.01874920463064609</v>
       </c>
       <c r="E76">
-        <v>0.05363626347103446</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02940161079264447</v>
+      </c>
+      <c r="F76">
+        <v>0.1115082381565282</v>
+      </c>
+      <c r="G76">
+        <v>0.05513520345590688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01579951307107934</v>
+        <v>-0.06774617850676305</v>
       </c>
       <c r="C77">
-        <v>0.01556326963147971</v>
+        <v>0.0586596973665098</v>
       </c>
       <c r="D77">
-        <v>0.06628043512794134</v>
+        <v>0.01099562371876565</v>
       </c>
       <c r="E77">
-        <v>-0.01597021031278296</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04096915184199047</v>
+      </c>
+      <c r="F77">
+        <v>-0.01511614124761492</v>
+      </c>
+      <c r="G77">
+        <v>0.05741808363406695</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004761750763853098</v>
+        <v>-0.04225493600746841</v>
       </c>
       <c r="C78">
-        <v>0.002387249484146654</v>
+        <v>0.05167727492317469</v>
       </c>
       <c r="D78">
-        <v>0.0589794775562635</v>
+        <v>0.005461233489307391</v>
       </c>
       <c r="E78">
-        <v>-0.01097678269086625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02218690971900238</v>
+      </c>
+      <c r="F78">
+        <v>-0.03641848899214879</v>
+      </c>
+      <c r="G78">
+        <v>0.0898763444859296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01394837064810238</v>
+        <v>-0.04442579301508407</v>
       </c>
       <c r="C80">
-        <v>0.01746616984981047</v>
+        <v>0.07407047519879711</v>
       </c>
       <c r="D80">
-        <v>0.164090748653755</v>
+        <v>0.01053203620535366</v>
       </c>
       <c r="E80">
-        <v>0.4149441909545692</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0378074791559871</v>
+      </c>
+      <c r="F80">
+        <v>-0.009374909912475707</v>
+      </c>
+      <c r="G80">
+        <v>0.2747074208121977</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01588696947815867</v>
+        <v>-0.1381343911487334</v>
       </c>
       <c r="C81">
-        <v>0.0778929039800083</v>
+        <v>0.09539593007595759</v>
       </c>
       <c r="D81">
-        <v>0.1790747085985987</v>
+        <v>-0.0152428277876303</v>
       </c>
       <c r="E81">
-        <v>0.04104599613905902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03378488029955783</v>
+      </c>
+      <c r="F81">
+        <v>0.1312249259574041</v>
+      </c>
+      <c r="G81">
+        <v>0.02135848360460782</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1299138619505071</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07519756860637321</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00869493344811352</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.09050874951225105</v>
+      </c>
+      <c r="F82">
+        <v>0.04760504535765427</v>
+      </c>
+      <c r="G82">
+        <v>0.0527712656316023</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.008755045592705641</v>
+        <v>-0.03677232261377807</v>
       </c>
       <c r="C83">
-        <v>0.01585807322576089</v>
+        <v>0.03065840643495005</v>
       </c>
       <c r="D83">
-        <v>0.03987099109175305</v>
+        <v>0.005933869672286879</v>
       </c>
       <c r="E83">
-        <v>-0.01719100827964002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02813780803894427</v>
+      </c>
+      <c r="F83">
+        <v>-0.03104798692557388</v>
+      </c>
+      <c r="G83">
+        <v>0.0615824210646897</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.02750596708437953</v>
+        <v>-0.213093133116969</v>
       </c>
       <c r="C85">
-        <v>0.09098363483716214</v>
+        <v>0.1439032213247539</v>
       </c>
       <c r="D85">
-        <v>0.2655124306483712</v>
+        <v>-0.01805348023580089</v>
       </c>
       <c r="E85">
-        <v>0.0452223745906562</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09458288578801667</v>
+      </c>
+      <c r="F85">
+        <v>0.1326461291783144</v>
+      </c>
+      <c r="G85">
+        <v>-0.09493957590371783</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01010580565764719</v>
+        <v>-0.01345502201407036</v>
       </c>
       <c r="C86">
-        <v>0.01562173273040141</v>
+        <v>0.02968786907164473</v>
       </c>
       <c r="D86">
-        <v>0.06266581689615389</v>
+        <v>0.0124228772892816</v>
       </c>
       <c r="E86">
-        <v>-0.03065276084106133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04936946332377648</v>
+      </c>
+      <c r="F86">
+        <v>-0.03145500327985</v>
+      </c>
+      <c r="G86">
+        <v>0.1863448644584269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006782836363648587</v>
+        <v>-0.02256408286493727</v>
       </c>
       <c r="C87">
-        <v>-0.008217311628638419</v>
+        <v>0.02405916899220682</v>
       </c>
       <c r="D87">
-        <v>0.0547657392943454</v>
+        <v>0.01179662149526115</v>
       </c>
       <c r="E87">
-        <v>-0.02983355281013721</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08642355475547686</v>
+      </c>
+      <c r="F87">
+        <v>-0.01363967167509272</v>
+      </c>
+      <c r="G87">
+        <v>0.1177920288987995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03108559379137757</v>
+        <v>-0.09309362584023669</v>
       </c>
       <c r="C88">
-        <v>0.0265139539951722</v>
+        <v>0.06747237938248095</v>
       </c>
       <c r="D88">
-        <v>0.05816180076322255</v>
+        <v>0.02209237682144385</v>
       </c>
       <c r="E88">
-        <v>0.003710427818500374</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.007687994347154518</v>
+      </c>
+      <c r="F88">
+        <v>0.02025283038117826</v>
+      </c>
+      <c r="G88">
+        <v>0.08284001591457515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1235804430320634</v>
+        <v>-0.2321652333238413</v>
       </c>
       <c r="C89">
-        <v>0.398650294660503</v>
+        <v>-0.3670483274858685</v>
       </c>
       <c r="D89">
-        <v>-0.1761300056233166</v>
+        <v>0.0005231507901714619</v>
       </c>
       <c r="E89">
-        <v>0.02578197918055767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01256865142112717</v>
+      </c>
+      <c r="F89">
+        <v>0.02535266242450241</v>
+      </c>
+      <c r="G89">
+        <v>0.06783765980945147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.09660519748319629</v>
+        <v>-0.2074275240611249</v>
       </c>
       <c r="C90">
-        <v>0.3184326475302667</v>
+        <v>-0.319543255361903</v>
       </c>
       <c r="D90">
-        <v>-0.1657818758370177</v>
+        <v>-0.004177036128619607</v>
       </c>
       <c r="E90">
-        <v>-0.007286665293324977</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002123957496906514</v>
+      </c>
+      <c r="F90">
+        <v>0.05364646831244497</v>
+      </c>
+      <c r="G90">
+        <v>0.03756144359252347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.01938526848532132</v>
+        <v>-0.1865522188866898</v>
       </c>
       <c r="C91">
-        <v>0.111342204406926</v>
+        <v>0.1385649486727043</v>
       </c>
       <c r="D91">
-        <v>0.225566512699754</v>
+        <v>-0.02228917930094806</v>
       </c>
       <c r="E91">
-        <v>0.04349223913497094</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0585208515806611</v>
+      </c>
+      <c r="F91">
+        <v>0.1448922468064498</v>
+      </c>
+      <c r="G91">
+        <v>0.02202037741795565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.06278887050330927</v>
+        <v>-0.1991142995850479</v>
       </c>
       <c r="C92">
-        <v>0.3158645406187532</v>
+        <v>-0.2569064632449977</v>
       </c>
       <c r="D92">
-        <v>-0.06162761289689019</v>
+        <v>-0.03783109682351182</v>
       </c>
       <c r="E92">
-        <v>-0.06136073306793628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03867139588776636</v>
+      </c>
+      <c r="F92">
+        <v>0.0599044799504616</v>
+      </c>
+      <c r="G92">
+        <v>0.1289151740603557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.0968947872119624</v>
+        <v>-0.2321082329476415</v>
       </c>
       <c r="C93">
-        <v>0.3390772366066235</v>
+        <v>-0.3154106846605562</v>
       </c>
       <c r="D93">
-        <v>-0.1340638921533695</v>
+        <v>-0.01110267942497894</v>
       </c>
       <c r="E93">
-        <v>-0.02572618763879009</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009188104095613063</v>
+      </c>
+      <c r="F93">
+        <v>0.04112782811124764</v>
+      </c>
+      <c r="G93">
+        <v>0.04965246372888918</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.05547815947779091</v>
+        <v>-0.3162880144144105</v>
       </c>
       <c r="C94">
-        <v>0.1620880598435908</v>
+        <v>0.1746119732340856</v>
       </c>
       <c r="D94">
-        <v>0.2725238871020977</v>
+        <v>-0.01741385468883269</v>
       </c>
       <c r="E94">
-        <v>0.09376928228950587</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1715376241966065</v>
+      </c>
+      <c r="F94">
+        <v>0.4809835948702468</v>
+      </c>
+      <c r="G94">
+        <v>-0.4093932870091704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002115364591893565</v>
+        <v>-0.1016305648801658</v>
       </c>
       <c r="C95">
-        <v>0.02540856295484344</v>
+        <v>0.08676644978789738</v>
       </c>
       <c r="D95">
-        <v>0.1185887605695866</v>
+        <v>-0.01108752410118966</v>
       </c>
       <c r="E95">
-        <v>-0.1343374461369775</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06894990068905651</v>
+      </c>
+      <c r="F95">
+        <v>-0.2016878742358031</v>
+      </c>
+      <c r="G95">
+        <v>-0.09001807858765652</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02975749367834554</v>
+        <v>-0.197247335037271</v>
       </c>
       <c r="C98">
-        <v>0.1432447294166819</v>
+        <v>0.04521751180010906</v>
       </c>
       <c r="D98">
-        <v>0.152187462121843</v>
+        <v>-0.01343613923546125</v>
       </c>
       <c r="E98">
-        <v>-0.03828382465536696</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06395838823520654</v>
+      </c>
+      <c r="F98">
+        <v>-0.2406975918170552</v>
+      </c>
+      <c r="G98">
+        <v>-0.00356418969216752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01054094901884491</v>
+        <v>-0.009524320583741568</v>
       </c>
       <c r="C101">
-        <v>0.01562048144915474</v>
+        <v>0.02341481978567492</v>
       </c>
       <c r="D101">
-        <v>0.02117497439314961</v>
+        <v>0.008823303077913186</v>
       </c>
       <c r="E101">
-        <v>-0.004521985204337718</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001354716224323065</v>
+      </c>
+      <c r="F101">
+        <v>0.01884584435286064</v>
+      </c>
+      <c r="G101">
+        <v>0.09304908792116154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0211158111430237</v>
+        <v>-0.1168701705676574</v>
       </c>
       <c r="C102">
-        <v>0.04551129432915184</v>
+        <v>0.08269246792664932</v>
       </c>
       <c r="D102">
-        <v>0.1274536662011174</v>
+        <v>0.0006074293488443318</v>
       </c>
       <c r="E102">
-        <v>0.02268888091666814</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03383542646760405</v>
+      </c>
+      <c r="F102">
+        <v>0.04247183269469702</v>
+      </c>
+      <c r="G102">
+        <v>0.008676014047443349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9520323150152339</v>
+        <v>-0.02108686741038022</v>
       </c>
       <c r="C104">
-        <v>-0.2734050056616484</v>
+        <v>-0.02921649798174288</v>
       </c>
       <c r="D104">
-        <v>-0.03431175575159791</v>
+        <v>0.9877549852924193</v>
       </c>
       <c r="E104">
-        <v>0.02869146093399855</v>
+        <v>-0.04754378869628364</v>
+      </c>
+      <c r="F104">
+        <v>0.03579224026979105</v>
+      </c>
+      <c r="G104">
+        <v>-0.0348350750924789</v>
       </c>
     </row>
   </sheetData>
